--- a/Data/fy2019_table13-arrivals.xlsx
+++ b/Data/fy2019_table13-arrivals.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECBE89C-758B-43EB-876C-CC6B30D9C481}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F729C4AC-5243-485F-8635-BCC8840468C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 13" sheetId="12" r:id="rId1"/>
@@ -186,6 +186,1209 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of Refugees(1980 - 2019) </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1029341745125896"/>
+          <c:y val="0.13289156626506027"/>
+          <c:w val="0.86420140143032576"/>
+          <c:h val="0.75787844290548023"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Table 13'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table 13'!$A$5:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table 13'!$B$5:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_)</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>207116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>159252</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70393</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67704</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64528</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76483</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>107070</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>122066</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>113389</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>115548</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>114181</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>111680</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>98973</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>75421</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>69653</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>76712</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>85285</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="#,##0">
+                  <c:v>72165</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="#,##0">
+                  <c:v>68920</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="#,##0">
+                  <c:v>26785</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="#,##0">
+                  <c:v>28286</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="#,##0">
+                  <c:v>52840</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="#,##0">
+                  <c:v>53738</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="#,##0">
+                  <c:v>41094</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="#,##0">
+                  <c:v>48218</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="#,##0">
+                  <c:v>60107</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="#,##0">
+                  <c:v>74602</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="#,##0">
+                  <c:v>73293</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="#,##0">
+                  <c:v>56384</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="#,##0">
+                  <c:v>58179</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="#,##0">
+                  <c:v>69909</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="#,##0">
+                  <c:v>69975</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="#,##0">
+                  <c:v>69920</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="#,##0">
+                  <c:v>84988</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="#,##0">
+                  <c:v>53691</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="#,##0">
+                  <c:v>22405</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="#,##0">
+                  <c:v>29916</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1503-47C2-AE3A-7A60EBC8C688}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="620451480"/>
+        <c:axId val="620450496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="620451480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="620450496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="620450496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="620451480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>34924</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8F0CCC-42E0-44C0-B50E-96159C0B604D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -511,7 +1714,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1208,5 +2413,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>